--- a/document/checklist/Checklist_Login.xlsx
+++ b/document/checklist/Checklist_Login.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP-Laravel\Fresher - small project\document\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766FFBB3-7BCE-4130-AA9E-1DD772F7F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993792D2-1DA7-46C0-8ECE-CE69153CC26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Histories" sheetId="1" r:id="rId1"/>
     <sheet name="Self-Check by DetailDesign" sheetId="6" r:id="rId2"/>
-    <sheet name="Self-Check by CodingRule" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Readme" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Ogawa-san_Feedback" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Self-Check by Coding Rule" sheetId="7" r:id="rId3"/>
+    <sheet name="Self-Check by CodingRule" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Readme" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Ogawa-san_Feedback" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="127">
   <si>
     <t>https://drive.google.com/drive/folders/0ALXeGcuuY2diUk9PVA</t>
   </si>
@@ -400,16 +401,154 @@
     <t>https://drive.google.com/drive/folders/1th8Vw9IH3Gj6b86UtLjPlXiUNInQPUgG</t>
   </si>
   <si>
-    <t>check email is incorrect</t>
-  </si>
-  <si>
-    <t>check email is invalid</t>
-  </si>
-  <si>
     <t>19/02/2025</t>
   </si>
   <si>
     <t xml:space="preserve">    1. Check display Login screen</t>
+  </si>
+  <si>
+    <t>Check email is invalid</t>
+  </si>
+  <si>
+    <t>Check email is incorrect</t>
+  </si>
+  <si>
+    <t>Self-Check by CodingRule</t>
+  </si>
+  <si>
+    <t>Check coding rule</t>
+  </si>
+  <si>
+    <t>Source file structure</t>
+  </si>
+  <si>
+    <t>The file structure on the source follows the Common Architecture defined at the start of the project</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>Meaning, spelled correctly</t>
+  </si>
+  <si>
+    <t>File encoding</t>
+  </si>
+  <si>
+    <t>Uses UTF 8 encoding</t>
+  </si>
+  <si>
+    <t>Whitespace characters</t>
+  </si>
+  <si>
+    <t>Make sure to use one-byte whitespace and don't use tabs to indent (Use single 2-byte whitespace)</t>
+  </si>
+  <si>
+    <t>Class name</t>
+  </si>
+  <si>
+    <t>The class name should not be a verb.</t>
+  </si>
+  <si>
+    <t>Function name</t>
+  </si>
+  <si>
+    <t>Start with lowercase letters</t>
+  </si>
+  <si>
+    <t>Method name</t>
+  </si>
+  <si>
+    <t>The method name must be declared in camelCase.</t>
+  </si>
+  <si>
+    <t>Max characters in line</t>
+  </si>
+  <si>
+    <t>Do not exceed the maximum number of characters per line (PHP: 120 characters)</t>
+  </si>
+  <si>
+    <t>Function Calls</t>
+  </si>
+  <si>
+    <t>Functions should be called without spaces between function names, open parentheses, and the first parameter</t>
+  </si>
+  <si>
+    <t>Method Definition</t>
+  </si>
+  <si>
+    <t>Parameters with default values should be placed last in the function definition.</t>
+  </si>
+  <si>
+    <t>Method Arguments</t>
+  </si>
+  <si>
+    <t>In the argument list, there must be no space before each comma, and there must be a space after each comma.</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>Constants should be defined in capital letters</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t>The name of the variable should be as clear as possible, but also as short as possible. Regular variables must start with a lowercase letter and must be written in camel in case of multiple words.</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>When writing code, it must be based on the design document, where it is not clear, you must confirm and note in the task if the design document is not written and needs to be updated</t>
+  </si>
+  <si>
+    <t>Check features reference</t>
+  </si>
+  <si>
+    <t>When editing a function, always check the relevant functions</t>
+  </si>
+  <si>
+    <t>Single line comments</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use “// “ character for comment.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A86E8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Comment</t>
+    </r>
+  </si>
+  <si>
+    <t>Multi-line comments</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use block format below:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4A86E8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/*
+* Comment 1
+* Comment 2
+* Comment 3
+*/</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -420,7 +559,7 @@
     <numFmt numFmtId="164" formatCode="0.0_ "/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,10 +688,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4A86E8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,8 +768,14 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -954,6 +1121,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -964,7 +1146,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1348,6 +1530,91 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1622,7 +1889,7 @@
   <dimension ref="A2:BI23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15:BE15"/>
+      <selection activeCell="P13" sqref="P13:BE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1812,7 +2079,7 @@
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AJ4" s="38"/>
       <c r="AK4" s="38"/>
@@ -2237,8 +2504,8 @@
     </row>
     <row r="11" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
-      <c r="B11" s="41">
-        <v>45705</v>
+      <c r="B11" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -2308,13 +2575,17 @@
     </row>
     <row r="12" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="41"/>
+      <c r="B12" s="41" t="s">
+        <v>87</v>
+      </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
-      <c r="H12" s="44"/>
+      <c r="H12" s="44" t="s">
+        <v>91</v>
+      </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -2322,7 +2593,9 @@
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="39"/>
-      <c r="P12" s="37"/>
+      <c r="P12" s="37" t="s">
+        <v>92</v>
+      </c>
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
@@ -2364,7 +2637,9 @@
       <c r="BC12" s="38"/>
       <c r="BD12" s="38"/>
       <c r="BE12" s="39"/>
-      <c r="BF12" s="40"/>
+      <c r="BF12" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="BG12" s="38"/>
       <c r="BH12" s="38"/>
       <c r="BI12" s="39"/>
@@ -3132,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82328D55-73A7-46F1-ADC6-4764245050DD}">
   <dimension ref="B2:BZ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH29" sqref="BH29:BL29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3352,7 +3627,7 @@
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
       <c r="AI4" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AJ4" s="38"/>
       <c r="AK4" s="38"/>
@@ -4356,7 +4631,7 @@
       <c r="B17" s="111"/>
       <c r="C17" s="87"/>
       <c r="D17" s="112" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E17" s="103"/>
       <c r="F17" s="103"/>
@@ -4495,7 +4770,7 @@
       <c r="AZ18" s="38"/>
       <c r="BA18" s="39"/>
       <c r="BB18" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC18" s="63"/>
       <c r="BD18" s="63"/>
@@ -4584,7 +4859,7 @@
       <c r="AZ19" s="38"/>
       <c r="BA19" s="39"/>
       <c r="BB19" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC19" s="63"/>
       <c r="BD19" s="63"/>
@@ -4673,7 +4948,7 @@
       <c r="AZ20" s="38"/>
       <c r="BA20" s="39"/>
       <c r="BB20" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC20" s="63"/>
       <c r="BD20" s="63"/>
@@ -4762,7 +5037,7 @@
       <c r="AZ21" s="38"/>
       <c r="BA21" s="39"/>
       <c r="BB21" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC21" s="63"/>
       <c r="BD21" s="63"/>
@@ -4932,7 +5207,7 @@
       <c r="AZ23" s="38"/>
       <c r="BA23" s="39"/>
       <c r="BB23" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC23" s="63"/>
       <c r="BD23" s="63"/>
@@ -5021,7 +5296,7 @@
       <c r="AZ24" s="38"/>
       <c r="BA24" s="39"/>
       <c r="BB24" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC24" s="63"/>
       <c r="BD24" s="63"/>
@@ -5191,7 +5466,7 @@
       <c r="AZ26" s="38"/>
       <c r="BA26" s="39"/>
       <c r="BB26" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC26" s="63"/>
       <c r="BD26" s="63"/>
@@ -5226,7 +5501,7 @@
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E27" s="78"/>
       <c r="F27" s="78"/>
@@ -5280,7 +5555,7 @@
       <c r="AZ27" s="38"/>
       <c r="BA27" s="39"/>
       <c r="BB27" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC27" s="63"/>
       <c r="BD27" s="63"/>
@@ -5315,7 +5590,7 @@
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="77" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E28" s="78"/>
       <c r="F28" s="78"/>
@@ -5369,7 +5644,7 @@
       <c r="AZ28" s="38"/>
       <c r="BA28" s="39"/>
       <c r="BB28" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC28" s="63"/>
       <c r="BD28" s="63"/>
@@ -5458,7 +5733,7 @@
       <c r="AZ29" s="38"/>
       <c r="BA29" s="39"/>
       <c r="BB29" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC29" s="63"/>
       <c r="BD29" s="63"/>
@@ -5547,7 +5822,7 @@
       <c r="AZ30" s="38"/>
       <c r="BA30" s="39"/>
       <c r="BB30" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC30" s="63"/>
       <c r="BD30" s="63"/>
@@ -5732,6 +6007,3718 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BFA45C-0883-456A-80D8-A5CA15F869A9}">
+  <dimension ref="B2:BT1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:BI7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="72" width="2.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="151"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="150"/>
+      <c r="AN2" s="150"/>
+      <c r="AO2" s="150"/>
+      <c r="AP2" s="150"/>
+      <c r="AQ2" s="150"/>
+      <c r="AR2" s="150"/>
+      <c r="AS2" s="150"/>
+      <c r="AT2" s="150"/>
+      <c r="AU2" s="150"/>
+      <c r="AV2" s="150"/>
+      <c r="AW2" s="150"/>
+      <c r="AX2" s="150"/>
+      <c r="AY2" s="150"/>
+      <c r="AZ2" s="150"/>
+      <c r="BA2" s="150"/>
+      <c r="BB2" s="150"/>
+      <c r="BC2" s="150"/>
+      <c r="BD2" s="150"/>
+      <c r="BE2" s="150"/>
+      <c r="BF2" s="150"/>
+      <c r="BG2" s="150"/>
+      <c r="BH2" s="150"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="152"/>
+      <c r="BK2" s="152"/>
+      <c r="BL2" s="152"/>
+      <c r="BM2" s="152"/>
+      <c r="BN2" s="152"/>
+      <c r="BO2" s="152"/>
+      <c r="BP2" s="152"/>
+      <c r="BQ2" s="152"/>
+      <c r="BR2" s="152"/>
+      <c r="BS2" s="152"/>
+      <c r="BT2" s="152"/>
+    </row>
+    <row r="3" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
+      <c r="AL3" s="150"/>
+      <c r="AM3" s="150"/>
+      <c r="AN3" s="150"/>
+      <c r="AO3" s="150"/>
+      <c r="AP3" s="150"/>
+      <c r="AQ3" s="150"/>
+      <c r="AR3" s="150"/>
+      <c r="AS3" s="150"/>
+      <c r="AT3" s="150"/>
+      <c r="AU3" s="150"/>
+      <c r="AV3" s="150"/>
+      <c r="AW3" s="150"/>
+      <c r="AX3" s="150"/>
+      <c r="AY3" s="150"/>
+      <c r="AZ3" s="150"/>
+      <c r="BA3" s="150"/>
+      <c r="BB3" s="150"/>
+      <c r="BC3" s="150"/>
+      <c r="BD3" s="150"/>
+      <c r="BE3" s="150"/>
+      <c r="BF3" s="150"/>
+      <c r="BG3" s="150"/>
+      <c r="BH3" s="150"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="152"/>
+      <c r="BK3" s="152"/>
+      <c r="BL3" s="152"/>
+      <c r="BM3" s="152"/>
+      <c r="BN3" s="152"/>
+      <c r="BO3" s="152"/>
+      <c r="BP3" s="152"/>
+      <c r="BQ3" s="152"/>
+      <c r="BR3" s="152"/>
+      <c r="BS3" s="152"/>
+      <c r="BT3" s="152"/>
+    </row>
+    <row r="4" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="150"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="156"/>
+      <c r="AC4" s="156"/>
+      <c r="AD4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="157"/>
+      <c r="AF4" s="157"/>
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="158" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="75"/>
+      <c r="AU4" s="75"/>
+      <c r="AV4" s="75"/>
+      <c r="AW4" s="75"/>
+      <c r="AX4" s="75"/>
+      <c r="AY4" s="75"/>
+      <c r="AZ4" s="75"/>
+      <c r="BA4" s="75"/>
+      <c r="BB4" s="75"/>
+      <c r="BC4" s="75"/>
+      <c r="BD4" s="75"/>
+      <c r="BE4" s="75"/>
+      <c r="BF4" s="75"/>
+      <c r="BG4" s="75"/>
+      <c r="BH4" s="75"/>
+      <c r="BI4" s="138"/>
+      <c r="BJ4" s="152"/>
+      <c r="BK4" s="152"/>
+      <c r="BL4" s="152"/>
+      <c r="BM4" s="152"/>
+      <c r="BN4" s="152"/>
+      <c r="BO4" s="152"/>
+      <c r="BP4" s="152"/>
+      <c r="BQ4" s="152"/>
+      <c r="BR4" s="152"/>
+      <c r="BS4" s="152"/>
+      <c r="BT4" s="152"/>
+    </row>
+    <row r="5" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="149" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="150"/>
+      <c r="AB5" s="150"/>
+      <c r="AC5" s="150"/>
+      <c r="AD5" s="150"/>
+      <c r="AE5" s="150"/>
+      <c r="AF5" s="150"/>
+      <c r="AG5" s="150"/>
+      <c r="AH5" s="150"/>
+      <c r="AI5" s="159"/>
+      <c r="AJ5" s="159"/>
+      <c r="AK5" s="159"/>
+      <c r="AL5" s="159"/>
+      <c r="AM5" s="159"/>
+      <c r="AN5" s="159"/>
+      <c r="AO5" s="159"/>
+      <c r="AP5" s="159"/>
+      <c r="AQ5" s="159"/>
+      <c r="AR5" s="159"/>
+      <c r="AS5" s="159"/>
+      <c r="AT5" s="159"/>
+      <c r="AU5" s="159"/>
+      <c r="AV5" s="159"/>
+      <c r="AW5" s="159"/>
+      <c r="AX5" s="159"/>
+      <c r="AY5" s="159"/>
+      <c r="AZ5" s="159"/>
+      <c r="BA5" s="159"/>
+      <c r="BB5" s="159"/>
+      <c r="BC5" s="159"/>
+      <c r="BD5" s="159"/>
+      <c r="BE5" s="159"/>
+      <c r="BF5" s="159"/>
+      <c r="BG5" s="150"/>
+      <c r="BH5" s="150"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="152"/>
+      <c r="BK5" s="152"/>
+      <c r="BL5" s="152"/>
+      <c r="BM5" s="152"/>
+      <c r="BN5" s="152"/>
+      <c r="BO5" s="152"/>
+      <c r="BP5" s="152"/>
+      <c r="BQ5" s="152"/>
+      <c r="BR5" s="152"/>
+      <c r="BS5" s="152"/>
+      <c r="BT5" s="152"/>
+    </row>
+    <row r="6" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="54"/>
+      <c r="BJ6" s="152"/>
+      <c r="BK6" s="152"/>
+      <c r="BL6" s="152"/>
+      <c r="BM6" s="152"/>
+      <c r="BN6" s="152"/>
+      <c r="BO6" s="152"/>
+      <c r="BP6" s="152"/>
+      <c r="BQ6" s="152"/>
+      <c r="BR6" s="152"/>
+      <c r="BS6" s="152"/>
+      <c r="BT6" s="152"/>
+    </row>
+    <row r="7" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="152"/>
+      <c r="BK7" s="152"/>
+      <c r="BL7" s="152"/>
+      <c r="BM7" s="152"/>
+      <c r="BN7" s="152"/>
+      <c r="BO7" s="152"/>
+      <c r="BP7" s="152"/>
+      <c r="BQ7" s="152"/>
+      <c r="BR7" s="152"/>
+      <c r="BS7" s="152"/>
+      <c r="BT7" s="152"/>
+    </row>
+    <row r="8" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="164"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="164"/>
+      <c r="T8" s="164"/>
+      <c r="U8" s="164"/>
+      <c r="V8" s="164"/>
+      <c r="W8" s="164"/>
+      <c r="X8" s="164"/>
+      <c r="Y8" s="164"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="164"/>
+      <c r="AB8" s="164"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="152"/>
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="152"/>
+      <c r="AK8" s="152"/>
+      <c r="AL8" s="152"/>
+      <c r="AM8" s="152"/>
+      <c r="AN8" s="152"/>
+      <c r="AO8" s="152"/>
+      <c r="AP8" s="152"/>
+      <c r="AQ8" s="152"/>
+      <c r="AR8" s="152"/>
+      <c r="AS8" s="152"/>
+      <c r="AT8" s="152"/>
+      <c r="AU8" s="152"/>
+      <c r="AV8" s="152"/>
+      <c r="AW8" s="152"/>
+      <c r="AX8" s="152"/>
+      <c r="AY8" s="152"/>
+      <c r="AZ8" s="152"/>
+      <c r="BA8" s="152"/>
+      <c r="BB8" s="152"/>
+      <c r="BC8" s="152"/>
+      <c r="BD8" s="152"/>
+      <c r="BE8" s="152"/>
+      <c r="BF8" s="152"/>
+      <c r="BG8" s="152"/>
+      <c r="BH8" s="152"/>
+      <c r="BI8" s="152"/>
+      <c r="BJ8" s="152"/>
+      <c r="BK8" s="152"/>
+      <c r="BL8" s="152"/>
+      <c r="BM8" s="152"/>
+      <c r="BN8" s="152"/>
+      <c r="BO8" s="152"/>
+      <c r="BP8" s="152"/>
+      <c r="BQ8" s="152"/>
+      <c r="BR8" s="152"/>
+      <c r="BS8" s="152"/>
+      <c r="BT8" s="152"/>
+    </row>
+    <row r="9" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="164"/>
+      <c r="AC9" s="152"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="152"/>
+      <c r="AH9" s="152"/>
+      <c r="AI9" s="152"/>
+      <c r="AJ9" s="152"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="152"/>
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="152"/>
+      <c r="AO9" s="152"/>
+      <c r="AP9" s="152"/>
+      <c r="AQ9" s="152"/>
+      <c r="AR9" s="152"/>
+      <c r="AS9" s="152"/>
+      <c r="AT9" s="152"/>
+      <c r="AU9" s="152"/>
+      <c r="AV9" s="152"/>
+      <c r="AW9" s="152"/>
+      <c r="AX9" s="152"/>
+      <c r="AY9" s="152"/>
+      <c r="AZ9" s="152"/>
+      <c r="BA9" s="165" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="75"/>
+      <c r="BE9" s="75"/>
+      <c r="BF9" s="138"/>
+      <c r="BG9" s="152"/>
+      <c r="BH9" s="152"/>
+      <c r="BI9" s="152"/>
+      <c r="BJ9" s="152"/>
+      <c r="BK9" s="152"/>
+      <c r="BL9" s="152"/>
+      <c r="BM9" s="152"/>
+      <c r="BN9" s="152"/>
+      <c r="BO9" s="152"/>
+      <c r="BP9" s="152"/>
+      <c r="BQ9" s="152"/>
+      <c r="BR9" s="152"/>
+      <c r="BS9" s="152"/>
+      <c r="BT9" s="152"/>
+    </row>
+    <row r="10" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="164"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="152"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="152"/>
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="152"/>
+      <c r="AM10" s="152"/>
+      <c r="AN10" s="152"/>
+      <c r="AO10" s="152"/>
+      <c r="AP10" s="152"/>
+      <c r="AQ10" s="152"/>
+      <c r="AR10" s="152"/>
+      <c r="AS10" s="152"/>
+      <c r="AT10" s="152"/>
+      <c r="AU10" s="152"/>
+      <c r="AV10" s="152"/>
+      <c r="AW10" s="152"/>
+      <c r="AX10" s="152"/>
+      <c r="AY10" s="152"/>
+      <c r="AZ10" s="152"/>
+      <c r="BA10" s="166" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="138"/>
+      <c r="BG10" s="152"/>
+      <c r="BH10" s="152"/>
+      <c r="BI10" s="152"/>
+      <c r="BJ10" s="152"/>
+      <c r="BK10" s="152"/>
+      <c r="BL10" s="152"/>
+      <c r="BM10" s="152"/>
+      <c r="BN10" s="152"/>
+      <c r="BO10" s="152"/>
+      <c r="BP10" s="152"/>
+      <c r="BQ10" s="152"/>
+      <c r="BR10" s="152"/>
+      <c r="BS10" s="152"/>
+      <c r="BT10" s="152"/>
+    </row>
+    <row r="11" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B11" s="164"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="152"/>
+      <c r="AA11" s="164"/>
+      <c r="AB11" s="164"/>
+      <c r="AC11" s="152"/>
+      <c r="AD11" s="152"/>
+      <c r="AE11" s="152"/>
+      <c r="AF11" s="152"/>
+      <c r="AG11" s="152"/>
+      <c r="AH11" s="152"/>
+      <c r="AI11" s="152"/>
+      <c r="AJ11" s="152"/>
+      <c r="AK11" s="152"/>
+      <c r="AL11" s="152"/>
+      <c r="AM11" s="152"/>
+      <c r="AN11" s="152"/>
+      <c r="AO11" s="152"/>
+      <c r="AP11" s="152"/>
+      <c r="AQ11" s="152"/>
+      <c r="AR11" s="152"/>
+      <c r="AS11" s="152"/>
+      <c r="AT11" s="152"/>
+      <c r="AU11" s="152"/>
+      <c r="AV11" s="152"/>
+      <c r="AW11" s="152"/>
+      <c r="AX11" s="152"/>
+      <c r="AY11" s="152"/>
+      <c r="AZ11" s="152"/>
+      <c r="BA11" s="166" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB11" s="75"/>
+      <c r="BC11" s="75"/>
+      <c r="BD11" s="75"/>
+      <c r="BE11" s="75"/>
+      <c r="BF11" s="138"/>
+      <c r="BG11" s="152"/>
+      <c r="BH11" s="152"/>
+      <c r="BI11" s="152"/>
+      <c r="BJ11" s="152"/>
+      <c r="BK11" s="152"/>
+      <c r="BL11" s="152"/>
+      <c r="BM11" s="152"/>
+      <c r="BN11" s="152"/>
+      <c r="BO11" s="152"/>
+      <c r="BP11" s="152"/>
+      <c r="BQ11" s="152"/>
+      <c r="BR11" s="152"/>
+      <c r="BS11" s="152"/>
+      <c r="BT11" s="152"/>
+    </row>
+    <row r="12" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B12" s="167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="168" t="str">
+        <f>BA10</f>
+        <v>Pass</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="168" t="str">
+        <f>BA11</f>
+        <v>Fail</v>
+      </c>
+      <c r="J12" s="75"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="168" t="str">
+        <f>BA12</f>
+        <v>Pending</v>
+      </c>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="168" t="str">
+        <f>BA13</f>
+        <v>Uncheck</v>
+      </c>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="168" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="75"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="152"/>
+      <c r="AD12" s="152"/>
+      <c r="AE12" s="152"/>
+      <c r="AF12" s="152"/>
+      <c r="AG12" s="152"/>
+      <c r="AH12" s="152"/>
+      <c r="AI12" s="152"/>
+      <c r="AJ12" s="152"/>
+      <c r="AK12" s="152"/>
+      <c r="AL12" s="152"/>
+      <c r="AM12" s="152"/>
+      <c r="AN12" s="152"/>
+      <c r="AO12" s="152"/>
+      <c r="AP12" s="152"/>
+      <c r="AQ12" s="152"/>
+      <c r="AR12" s="152"/>
+      <c r="AS12" s="152"/>
+      <c r="AT12" s="152"/>
+      <c r="AU12" s="152"/>
+      <c r="AV12" s="152"/>
+      <c r="AW12" s="152"/>
+      <c r="AX12" s="152"/>
+      <c r="AY12" s="152"/>
+      <c r="AZ12" s="152"/>
+      <c r="BA12" s="166" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB12" s="75"/>
+      <c r="BC12" s="75"/>
+      <c r="BD12" s="75"/>
+      <c r="BE12" s="75"/>
+      <c r="BF12" s="138"/>
+      <c r="BG12" s="152"/>
+      <c r="BH12" s="152"/>
+      <c r="BI12" s="152"/>
+      <c r="BJ12" s="152"/>
+      <c r="BK12" s="152"/>
+      <c r="BL12" s="152"/>
+      <c r="BM12" s="152"/>
+      <c r="BN12" s="152"/>
+      <c r="BO12" s="152"/>
+      <c r="BP12" s="152"/>
+      <c r="BQ12" s="152"/>
+      <c r="BR12" s="152"/>
+      <c r="BS12" s="152"/>
+      <c r="BT12" s="152"/>
+    </row>
+    <row r="13" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="169">
+        <f>COUNTIF($BB$16:$BF$32,$BA$10)</f>
+        <v>17</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="169">
+        <f>COUNTIF($BB$16:$BF$28,$BA$11)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="75"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="169">
+        <f>COUNTIF($BB$16:$BF$28,$BA$12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="169">
+        <f>COUNTIF($BB$16:$BF$28,$BA$13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="169">
+        <f>SUM(F13:S13)</f>
+        <v>17</v>
+      </c>
+      <c r="U13" s="75"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="152"/>
+      <c r="AD13" s="152"/>
+      <c r="AE13" s="152"/>
+      <c r="AF13" s="152"/>
+      <c r="AG13" s="152"/>
+      <c r="AH13" s="152"/>
+      <c r="AI13" s="152"/>
+      <c r="AJ13" s="152"/>
+      <c r="AK13" s="152"/>
+      <c r="AL13" s="152"/>
+      <c r="AM13" s="152"/>
+      <c r="AN13" s="152"/>
+      <c r="AO13" s="152"/>
+      <c r="AP13" s="152"/>
+      <c r="AQ13" s="152"/>
+      <c r="AR13" s="152"/>
+      <c r="AS13" s="152"/>
+      <c r="AT13" s="152"/>
+      <c r="AU13" s="152"/>
+      <c r="AV13" s="152"/>
+      <c r="AW13" s="152"/>
+      <c r="AX13" s="152"/>
+      <c r="AY13" s="152"/>
+      <c r="AZ13" s="152"/>
+      <c r="BA13" s="166" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB13" s="75"/>
+      <c r="BC13" s="75"/>
+      <c r="BD13" s="75"/>
+      <c r="BE13" s="75"/>
+      <c r="BF13" s="138"/>
+      <c r="BG13" s="152"/>
+      <c r="BH13" s="152"/>
+      <c r="BI13" s="152"/>
+      <c r="BJ13" s="152"/>
+      <c r="BK13" s="152"/>
+      <c r="BL13" s="152"/>
+      <c r="BM13" s="152"/>
+      <c r="BN13" s="152"/>
+      <c r="BO13" s="152"/>
+      <c r="BP13" s="152"/>
+      <c r="BQ13" s="152"/>
+      <c r="BR13" s="152"/>
+      <c r="BS13" s="152"/>
+      <c r="BT13" s="152"/>
+    </row>
+    <row r="14" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B14" s="164"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="164"/>
+      <c r="AB14" s="164"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
+      <c r="AE14" s="152"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="152"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="152"/>
+      <c r="AJ14" s="152"/>
+      <c r="AK14" s="152"/>
+      <c r="AL14" s="152"/>
+      <c r="AM14" s="152"/>
+      <c r="AN14" s="152"/>
+      <c r="AO14" s="152"/>
+      <c r="AP14" s="152"/>
+      <c r="AQ14" s="152"/>
+      <c r="AR14" s="152"/>
+      <c r="AS14" s="152"/>
+      <c r="AT14" s="152"/>
+      <c r="AU14" s="152"/>
+      <c r="AV14" s="152"/>
+      <c r="AW14" s="152"/>
+      <c r="AX14" s="152"/>
+      <c r="AY14" s="152"/>
+      <c r="AZ14" s="152"/>
+      <c r="BA14" s="152"/>
+      <c r="BB14" s="152"/>
+      <c r="BC14" s="152"/>
+      <c r="BD14" s="152"/>
+      <c r="BE14" s="152"/>
+      <c r="BF14" s="152"/>
+      <c r="BG14" s="152"/>
+      <c r="BH14" s="152"/>
+      <c r="BI14" s="152"/>
+      <c r="BJ14" s="152"/>
+      <c r="BK14" s="152"/>
+      <c r="BL14" s="152"/>
+      <c r="BM14" s="152"/>
+      <c r="BN14" s="152"/>
+      <c r="BO14" s="152"/>
+      <c r="BP14" s="152"/>
+      <c r="BQ14" s="152"/>
+      <c r="BR14" s="152"/>
+      <c r="BS14" s="152"/>
+      <c r="BT14" s="152"/>
+    </row>
+    <row r="15" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B15" s="171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="172" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="172" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="172" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="173" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW15" s="75"/>
+      <c r="AX15" s="75"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="75"/>
+      <c r="BA15" s="138"/>
+      <c r="BB15" s="173" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC15" s="75"/>
+      <c r="BD15" s="75"/>
+      <c r="BE15" s="75"/>
+      <c r="BF15" s="138"/>
+      <c r="BG15" s="173" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH15" s="75"/>
+      <c r="BI15" s="75"/>
+      <c r="BJ15" s="75"/>
+      <c r="BK15" s="75"/>
+      <c r="BL15" s="75"/>
+      <c r="BM15" s="75"/>
+      <c r="BN15" s="75"/>
+      <c r="BO15" s="75"/>
+      <c r="BP15" s="75"/>
+      <c r="BQ15" s="75"/>
+      <c r="BR15" s="75"/>
+      <c r="BS15" s="75"/>
+      <c r="BT15" s="138"/>
+    </row>
+    <row r="16" spans="2:72" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="174">
+        <v>1</v>
+      </c>
+      <c r="C16" s="174"/>
+      <c r="D16" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="175" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="175"/>
+      <c r="U16" s="175"/>
+      <c r="V16" s="175"/>
+      <c r="W16" s="175"/>
+      <c r="X16" s="175"/>
+      <c r="Y16" s="175"/>
+      <c r="Z16" s="175"/>
+      <c r="AA16" s="175"/>
+      <c r="AB16" s="175"/>
+      <c r="AC16" s="175"/>
+      <c r="AD16" s="175"/>
+      <c r="AE16" s="175"/>
+      <c r="AF16" s="175"/>
+      <c r="AG16" s="175"/>
+      <c r="AH16" s="175"/>
+      <c r="AI16" s="175"/>
+      <c r="AJ16" s="175"/>
+      <c r="AK16" s="175"/>
+      <c r="AL16" s="175"/>
+      <c r="AM16" s="175"/>
+      <c r="AN16" s="175"/>
+      <c r="AO16" s="175"/>
+      <c r="AP16" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ16" s="174"/>
+      <c r="AR16" s="174"/>
+      <c r="AS16" s="174"/>
+      <c r="AT16" s="174"/>
+      <c r="AU16" s="174"/>
+      <c r="AV16" s="140" t="str">
+        <f>$AI4</f>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW16" s="140"/>
+      <c r="AX16" s="140"/>
+      <c r="AY16" s="140"/>
+      <c r="AZ16" s="140"/>
+      <c r="BA16" s="141"/>
+      <c r="BB16" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC16" s="145"/>
+      <c r="BD16" s="145"/>
+      <c r="BE16" s="145"/>
+      <c r="BF16" s="146"/>
+      <c r="BG16" s="68"/>
+      <c r="BH16" s="69"/>
+      <c r="BI16" s="69"/>
+      <c r="BJ16" s="69"/>
+      <c r="BK16" s="69"/>
+      <c r="BL16" s="69"/>
+      <c r="BM16" s="69"/>
+      <c r="BN16" s="69"/>
+      <c r="BO16" s="69"/>
+      <c r="BP16" s="69"/>
+      <c r="BQ16" s="69"/>
+      <c r="BR16" s="69"/>
+      <c r="BS16" s="69"/>
+      <c r="BT16" s="147"/>
+    </row>
+    <row r="17" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="174">
+        <v>2</v>
+      </c>
+      <c r="C17" s="174"/>
+      <c r="D17" s="175" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="175" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="175"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="175"/>
+      <c r="W17" s="175"/>
+      <c r="X17" s="175"/>
+      <c r="Y17" s="175"/>
+      <c r="Z17" s="175"/>
+      <c r="AA17" s="175"/>
+      <c r="AB17" s="175"/>
+      <c r="AC17" s="175"/>
+      <c r="AD17" s="175"/>
+      <c r="AE17" s="175"/>
+      <c r="AF17" s="175"/>
+      <c r="AG17" s="175"/>
+      <c r="AH17" s="175"/>
+      <c r="AI17" s="175"/>
+      <c r="AJ17" s="175"/>
+      <c r="AK17" s="175"/>
+      <c r="AL17" s="175"/>
+      <c r="AM17" s="175"/>
+      <c r="AN17" s="175"/>
+      <c r="AO17" s="175"/>
+      <c r="AP17" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ17" s="174"/>
+      <c r="AR17" s="174"/>
+      <c r="AS17" s="174"/>
+      <c r="AT17" s="174"/>
+      <c r="AU17" s="174"/>
+      <c r="AV17" s="140" t="str">
+        <f>$AV16</f>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW17" s="140"/>
+      <c r="AX17" s="140"/>
+      <c r="AY17" s="140"/>
+      <c r="AZ17" s="140"/>
+      <c r="BA17" s="141"/>
+      <c r="BB17" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC17" s="145"/>
+      <c r="BD17" s="145"/>
+      <c r="BE17" s="145"/>
+      <c r="BF17" s="146"/>
+      <c r="BG17" s="68"/>
+      <c r="BH17" s="69"/>
+      <c r="BI17" s="69"/>
+      <c r="BJ17" s="69"/>
+      <c r="BK17" s="69"/>
+      <c r="BL17" s="69"/>
+      <c r="BM17" s="69"/>
+      <c r="BN17" s="69"/>
+      <c r="BO17" s="69"/>
+      <c r="BP17" s="69"/>
+      <c r="BQ17" s="69"/>
+      <c r="BR17" s="69"/>
+      <c r="BS17" s="69"/>
+      <c r="BT17" s="147"/>
+    </row>
+    <row r="18" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="174">
+        <v>3</v>
+      </c>
+      <c r="C18" s="174"/>
+      <c r="D18" s="175" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="175" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="175"/>
+      <c r="U18" s="175"/>
+      <c r="V18" s="175"/>
+      <c r="W18" s="175"/>
+      <c r="X18" s="175"/>
+      <c r="Y18" s="175"/>
+      <c r="Z18" s="175"/>
+      <c r="AA18" s="175"/>
+      <c r="AB18" s="175"/>
+      <c r="AC18" s="175"/>
+      <c r="AD18" s="175"/>
+      <c r="AE18" s="175"/>
+      <c r="AF18" s="175"/>
+      <c r="AG18" s="175"/>
+      <c r="AH18" s="175"/>
+      <c r="AI18" s="175"/>
+      <c r="AJ18" s="175"/>
+      <c r="AK18" s="175"/>
+      <c r="AL18" s="175"/>
+      <c r="AM18" s="175"/>
+      <c r="AN18" s="175"/>
+      <c r="AO18" s="175"/>
+      <c r="AP18" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ18" s="174"/>
+      <c r="AR18" s="174"/>
+      <c r="AS18" s="174"/>
+      <c r="AT18" s="174"/>
+      <c r="AU18" s="174"/>
+      <c r="AV18" s="140" t="str">
+        <f t="shared" ref="AV18:AV32" si="0">$AV17</f>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW18" s="140"/>
+      <c r="AX18" s="140"/>
+      <c r="AY18" s="140"/>
+      <c r="AZ18" s="140"/>
+      <c r="BA18" s="141"/>
+      <c r="BB18" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC18" s="145"/>
+      <c r="BD18" s="145"/>
+      <c r="BE18" s="145"/>
+      <c r="BF18" s="146"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="69"/>
+      <c r="BI18" s="69"/>
+      <c r="BJ18" s="69"/>
+      <c r="BK18" s="69"/>
+      <c r="BL18" s="69"/>
+      <c r="BM18" s="69"/>
+      <c r="BN18" s="69"/>
+      <c r="BO18" s="69"/>
+      <c r="BP18" s="69"/>
+      <c r="BQ18" s="69"/>
+      <c r="BR18" s="69"/>
+      <c r="BS18" s="69"/>
+      <c r="BT18" s="147"/>
+    </row>
+    <row r="19" spans="2:72" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="174">
+        <v>4</v>
+      </c>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="175" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="175"/>
+      <c r="T19" s="175"/>
+      <c r="U19" s="175"/>
+      <c r="V19" s="175"/>
+      <c r="W19" s="175"/>
+      <c r="X19" s="175"/>
+      <c r="Y19" s="175"/>
+      <c r="Z19" s="175"/>
+      <c r="AA19" s="175"/>
+      <c r="AB19" s="175"/>
+      <c r="AC19" s="175"/>
+      <c r="AD19" s="175"/>
+      <c r="AE19" s="175"/>
+      <c r="AF19" s="175"/>
+      <c r="AG19" s="175"/>
+      <c r="AH19" s="175"/>
+      <c r="AI19" s="175"/>
+      <c r="AJ19" s="175"/>
+      <c r="AK19" s="175"/>
+      <c r="AL19" s="175"/>
+      <c r="AM19" s="175"/>
+      <c r="AN19" s="175"/>
+      <c r="AO19" s="175"/>
+      <c r="AP19" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ19" s="174"/>
+      <c r="AR19" s="174"/>
+      <c r="AS19" s="174"/>
+      <c r="AT19" s="174"/>
+      <c r="AU19" s="174"/>
+      <c r="AV19" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW19" s="140"/>
+      <c r="AX19" s="140"/>
+      <c r="AY19" s="140"/>
+      <c r="AZ19" s="140"/>
+      <c r="BA19" s="141"/>
+      <c r="BB19" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC19" s="145"/>
+      <c r="BD19" s="145"/>
+      <c r="BE19" s="145"/>
+      <c r="BF19" s="146"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="69"/>
+      <c r="BI19" s="69"/>
+      <c r="BJ19" s="69"/>
+      <c r="BK19" s="69"/>
+      <c r="BL19" s="69"/>
+      <c r="BM19" s="69"/>
+      <c r="BN19" s="69"/>
+      <c r="BO19" s="69"/>
+      <c r="BP19" s="69"/>
+      <c r="BQ19" s="69"/>
+      <c r="BR19" s="69"/>
+      <c r="BS19" s="69"/>
+      <c r="BT19" s="147"/>
+    </row>
+    <row r="20" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="174">
+        <v>5</v>
+      </c>
+      <c r="C20" s="174"/>
+      <c r="D20" s="175" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="175"/>
+      <c r="U20" s="175"/>
+      <c r="V20" s="175"/>
+      <c r="W20" s="175"/>
+      <c r="X20" s="175"/>
+      <c r="Y20" s="175"/>
+      <c r="Z20" s="175"/>
+      <c r="AA20" s="175"/>
+      <c r="AB20" s="175"/>
+      <c r="AC20" s="175"/>
+      <c r="AD20" s="175"/>
+      <c r="AE20" s="175"/>
+      <c r="AF20" s="175"/>
+      <c r="AG20" s="175"/>
+      <c r="AH20" s="175"/>
+      <c r="AI20" s="175"/>
+      <c r="AJ20" s="175"/>
+      <c r="AK20" s="175"/>
+      <c r="AL20" s="175"/>
+      <c r="AM20" s="175"/>
+      <c r="AN20" s="175"/>
+      <c r="AO20" s="175"/>
+      <c r="AP20" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ20" s="174"/>
+      <c r="AR20" s="174"/>
+      <c r="AS20" s="174"/>
+      <c r="AT20" s="174"/>
+      <c r="AU20" s="174"/>
+      <c r="AV20" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW20" s="140"/>
+      <c r="AX20" s="140"/>
+      <c r="AY20" s="140"/>
+      <c r="AZ20" s="140"/>
+      <c r="BA20" s="141"/>
+      <c r="BB20" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC20" s="145"/>
+      <c r="BD20" s="145"/>
+      <c r="BE20" s="145"/>
+      <c r="BF20" s="146"/>
+      <c r="BG20" s="68"/>
+      <c r="BH20" s="69"/>
+      <c r="BI20" s="69"/>
+      <c r="BJ20" s="69"/>
+      <c r="BK20" s="69"/>
+      <c r="BL20" s="69"/>
+      <c r="BM20" s="69"/>
+      <c r="BN20" s="69"/>
+      <c r="BO20" s="69"/>
+      <c r="BP20" s="69"/>
+      <c r="BQ20" s="69"/>
+      <c r="BR20" s="69"/>
+      <c r="BS20" s="69"/>
+      <c r="BT20" s="147"/>
+    </row>
+    <row r="21" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="174">
+        <v>6</v>
+      </c>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
+      <c r="U21" s="175"/>
+      <c r="V21" s="175"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="175"/>
+      <c r="Y21" s="175"/>
+      <c r="Z21" s="175"/>
+      <c r="AA21" s="175"/>
+      <c r="AB21" s="175"/>
+      <c r="AC21" s="175"/>
+      <c r="AD21" s="175"/>
+      <c r="AE21" s="175"/>
+      <c r="AF21" s="175"/>
+      <c r="AG21" s="175"/>
+      <c r="AH21" s="175"/>
+      <c r="AI21" s="175"/>
+      <c r="AJ21" s="175"/>
+      <c r="AK21" s="175"/>
+      <c r="AL21" s="175"/>
+      <c r="AM21" s="175"/>
+      <c r="AN21" s="175"/>
+      <c r="AO21" s="175"/>
+      <c r="AP21" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ21" s="174"/>
+      <c r="AR21" s="174"/>
+      <c r="AS21" s="174"/>
+      <c r="AT21" s="174"/>
+      <c r="AU21" s="174"/>
+      <c r="AV21" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW21" s="140"/>
+      <c r="AX21" s="140"/>
+      <c r="AY21" s="140"/>
+      <c r="AZ21" s="140"/>
+      <c r="BA21" s="141"/>
+      <c r="BB21" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC21" s="145"/>
+      <c r="BD21" s="145"/>
+      <c r="BE21" s="145"/>
+      <c r="BF21" s="146"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="69"/>
+      <c r="BI21" s="69"/>
+      <c r="BJ21" s="69"/>
+      <c r="BK21" s="69"/>
+      <c r="BL21" s="69"/>
+      <c r="BM21" s="69"/>
+      <c r="BN21" s="69"/>
+      <c r="BO21" s="69"/>
+      <c r="BP21" s="69"/>
+      <c r="BQ21" s="69"/>
+      <c r="BR21" s="69"/>
+      <c r="BS21" s="69"/>
+      <c r="BT21" s="147"/>
+    </row>
+    <row r="22" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="174">
+        <v>7</v>
+      </c>
+      <c r="C22" s="174"/>
+      <c r="D22" s="175" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="175"/>
+      <c r="U22" s="175"/>
+      <c r="V22" s="175"/>
+      <c r="W22" s="175"/>
+      <c r="X22" s="175"/>
+      <c r="Y22" s="175"/>
+      <c r="Z22" s="175"/>
+      <c r="AA22" s="175"/>
+      <c r="AB22" s="175"/>
+      <c r="AC22" s="175"/>
+      <c r="AD22" s="175"/>
+      <c r="AE22" s="175"/>
+      <c r="AF22" s="175"/>
+      <c r="AG22" s="175"/>
+      <c r="AH22" s="175"/>
+      <c r="AI22" s="175"/>
+      <c r="AJ22" s="175"/>
+      <c r="AK22" s="175"/>
+      <c r="AL22" s="175"/>
+      <c r="AM22" s="175"/>
+      <c r="AN22" s="175"/>
+      <c r="AO22" s="175"/>
+      <c r="AP22" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ22" s="174"/>
+      <c r="AR22" s="174"/>
+      <c r="AS22" s="174"/>
+      <c r="AT22" s="174"/>
+      <c r="AU22" s="174"/>
+      <c r="AV22" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW22" s="140"/>
+      <c r="AX22" s="140"/>
+      <c r="AY22" s="140"/>
+      <c r="AZ22" s="140"/>
+      <c r="BA22" s="141"/>
+      <c r="BB22" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC22" s="145"/>
+      <c r="BD22" s="145"/>
+      <c r="BE22" s="145"/>
+      <c r="BF22" s="146"/>
+      <c r="BG22" s="68"/>
+      <c r="BH22" s="69"/>
+      <c r="BI22" s="69"/>
+      <c r="BJ22" s="69"/>
+      <c r="BK22" s="69"/>
+      <c r="BL22" s="69"/>
+      <c r="BM22" s="69"/>
+      <c r="BN22" s="69"/>
+      <c r="BO22" s="69"/>
+      <c r="BP22" s="69"/>
+      <c r="BQ22" s="69"/>
+      <c r="BR22" s="69"/>
+      <c r="BS22" s="69"/>
+      <c r="BT22" s="147"/>
+    </row>
+    <row r="23" spans="2:72" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="174">
+        <v>8</v>
+      </c>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="175"/>
+      <c r="W23" s="175"/>
+      <c r="X23" s="175"/>
+      <c r="Y23" s="175"/>
+      <c r="Z23" s="175"/>
+      <c r="AA23" s="175"/>
+      <c r="AB23" s="175"/>
+      <c r="AC23" s="175"/>
+      <c r="AD23" s="175"/>
+      <c r="AE23" s="175"/>
+      <c r="AF23" s="175"/>
+      <c r="AG23" s="175"/>
+      <c r="AH23" s="175"/>
+      <c r="AI23" s="175"/>
+      <c r="AJ23" s="175"/>
+      <c r="AK23" s="175"/>
+      <c r="AL23" s="175"/>
+      <c r="AM23" s="175"/>
+      <c r="AN23" s="175"/>
+      <c r="AO23" s="175"/>
+      <c r="AP23" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ23" s="174"/>
+      <c r="AR23" s="174"/>
+      <c r="AS23" s="174"/>
+      <c r="AT23" s="174"/>
+      <c r="AU23" s="174"/>
+      <c r="AV23" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW23" s="140"/>
+      <c r="AX23" s="140"/>
+      <c r="AY23" s="140"/>
+      <c r="AZ23" s="140"/>
+      <c r="BA23" s="141"/>
+      <c r="BB23" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC23" s="145"/>
+      <c r="BD23" s="145"/>
+      <c r="BE23" s="145"/>
+      <c r="BF23" s="146"/>
+      <c r="BG23" s="68"/>
+      <c r="BH23" s="69"/>
+      <c r="BI23" s="69"/>
+      <c r="BJ23" s="69"/>
+      <c r="BK23" s="69"/>
+      <c r="BL23" s="69"/>
+      <c r="BM23" s="69"/>
+      <c r="BN23" s="69"/>
+      <c r="BO23" s="69"/>
+      <c r="BP23" s="69"/>
+      <c r="BQ23" s="69"/>
+      <c r="BR23" s="69"/>
+      <c r="BS23" s="69"/>
+      <c r="BT23" s="147"/>
+    </row>
+    <row r="24" spans="2:72" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="174">
+        <v>9</v>
+      </c>
+      <c r="C24" s="174"/>
+      <c r="D24" s="175" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="175"/>
+      <c r="V24" s="175"/>
+      <c r="W24" s="175"/>
+      <c r="X24" s="175"/>
+      <c r="Y24" s="175"/>
+      <c r="Z24" s="175"/>
+      <c r="AA24" s="175"/>
+      <c r="AB24" s="175"/>
+      <c r="AC24" s="175"/>
+      <c r="AD24" s="175"/>
+      <c r="AE24" s="175"/>
+      <c r="AF24" s="175"/>
+      <c r="AG24" s="175"/>
+      <c r="AH24" s="175"/>
+      <c r="AI24" s="175"/>
+      <c r="AJ24" s="175"/>
+      <c r="AK24" s="175"/>
+      <c r="AL24" s="175"/>
+      <c r="AM24" s="175"/>
+      <c r="AN24" s="175"/>
+      <c r="AO24" s="175"/>
+      <c r="AP24" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ24" s="174"/>
+      <c r="AR24" s="174"/>
+      <c r="AS24" s="174"/>
+      <c r="AT24" s="174"/>
+      <c r="AU24" s="174"/>
+      <c r="AV24" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW24" s="140"/>
+      <c r="AX24" s="140"/>
+      <c r="AY24" s="140"/>
+      <c r="AZ24" s="140"/>
+      <c r="BA24" s="141"/>
+      <c r="BB24" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC24" s="145"/>
+      <c r="BD24" s="145"/>
+      <c r="BE24" s="145"/>
+      <c r="BF24" s="146"/>
+      <c r="BG24" s="68"/>
+      <c r="BH24" s="69"/>
+      <c r="BI24" s="69"/>
+      <c r="BJ24" s="69"/>
+      <c r="BK24" s="69"/>
+      <c r="BL24" s="69"/>
+      <c r="BM24" s="69"/>
+      <c r="BN24" s="69"/>
+      <c r="BO24" s="69"/>
+      <c r="BP24" s="69"/>
+      <c r="BQ24" s="69"/>
+      <c r="BR24" s="69"/>
+      <c r="BS24" s="69"/>
+      <c r="BT24" s="147"/>
+    </row>
+    <row r="25" spans="2:72" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="174">
+        <v>10</v>
+      </c>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
+      <c r="V25" s="175"/>
+      <c r="W25" s="175"/>
+      <c r="X25" s="175"/>
+      <c r="Y25" s="175"/>
+      <c r="Z25" s="175"/>
+      <c r="AA25" s="175"/>
+      <c r="AB25" s="175"/>
+      <c r="AC25" s="175"/>
+      <c r="AD25" s="175"/>
+      <c r="AE25" s="175"/>
+      <c r="AF25" s="175"/>
+      <c r="AG25" s="175"/>
+      <c r="AH25" s="175"/>
+      <c r="AI25" s="175"/>
+      <c r="AJ25" s="175"/>
+      <c r="AK25" s="175"/>
+      <c r="AL25" s="175"/>
+      <c r="AM25" s="175"/>
+      <c r="AN25" s="175"/>
+      <c r="AO25" s="175"/>
+      <c r="AP25" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ25" s="174"/>
+      <c r="AR25" s="174"/>
+      <c r="AS25" s="174"/>
+      <c r="AT25" s="174"/>
+      <c r="AU25" s="174"/>
+      <c r="AV25" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW25" s="140"/>
+      <c r="AX25" s="140"/>
+      <c r="AY25" s="140"/>
+      <c r="AZ25" s="140"/>
+      <c r="BA25" s="141"/>
+      <c r="BB25" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC25" s="145"/>
+      <c r="BD25" s="145"/>
+      <c r="BE25" s="145"/>
+      <c r="BF25" s="146"/>
+      <c r="BG25" s="68"/>
+      <c r="BH25" s="69"/>
+      <c r="BI25" s="69"/>
+      <c r="BJ25" s="69"/>
+      <c r="BK25" s="69"/>
+      <c r="BL25" s="69"/>
+      <c r="BM25" s="69"/>
+      <c r="BN25" s="69"/>
+      <c r="BO25" s="69"/>
+      <c r="BP25" s="69"/>
+      <c r="BQ25" s="69"/>
+      <c r="BR25" s="69"/>
+      <c r="BS25" s="69"/>
+      <c r="BT25" s="147"/>
+    </row>
+    <row r="26" spans="2:72" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="174">
+        <v>11</v>
+      </c>
+      <c r="C26" s="174"/>
+      <c r="D26" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="175"/>
+      <c r="V26" s="175"/>
+      <c r="W26" s="175"/>
+      <c r="X26" s="175"/>
+      <c r="Y26" s="175"/>
+      <c r="Z26" s="175"/>
+      <c r="AA26" s="175"/>
+      <c r="AB26" s="175"/>
+      <c r="AC26" s="175"/>
+      <c r="AD26" s="175"/>
+      <c r="AE26" s="175"/>
+      <c r="AF26" s="175"/>
+      <c r="AG26" s="175"/>
+      <c r="AH26" s="175"/>
+      <c r="AI26" s="175"/>
+      <c r="AJ26" s="175"/>
+      <c r="AK26" s="175"/>
+      <c r="AL26" s="175"/>
+      <c r="AM26" s="175"/>
+      <c r="AN26" s="175"/>
+      <c r="AO26" s="175"/>
+      <c r="AP26" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ26" s="174"/>
+      <c r="AR26" s="174"/>
+      <c r="AS26" s="174"/>
+      <c r="AT26" s="174"/>
+      <c r="AU26" s="174"/>
+      <c r="AV26" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW26" s="140"/>
+      <c r="AX26" s="140"/>
+      <c r="AY26" s="140"/>
+      <c r="AZ26" s="140"/>
+      <c r="BA26" s="141"/>
+      <c r="BB26" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC26" s="145"/>
+      <c r="BD26" s="145"/>
+      <c r="BE26" s="145"/>
+      <c r="BF26" s="146"/>
+      <c r="BG26" s="68"/>
+      <c r="BH26" s="69"/>
+      <c r="BI26" s="69"/>
+      <c r="BJ26" s="69"/>
+      <c r="BK26" s="69"/>
+      <c r="BL26" s="69"/>
+      <c r="BM26" s="69"/>
+      <c r="BN26" s="69"/>
+      <c r="BO26" s="69"/>
+      <c r="BP26" s="69"/>
+      <c r="BQ26" s="69"/>
+      <c r="BR26" s="69"/>
+      <c r="BS26" s="69"/>
+      <c r="BT26" s="147"/>
+    </row>
+    <row r="27" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="174">
+        <v>12</v>
+      </c>
+      <c r="C27" s="174"/>
+      <c r="D27" s="175" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="175"/>
+      <c r="V27" s="175"/>
+      <c r="W27" s="175"/>
+      <c r="X27" s="175"/>
+      <c r="Y27" s="175"/>
+      <c r="Z27" s="175"/>
+      <c r="AA27" s="175"/>
+      <c r="AB27" s="175"/>
+      <c r="AC27" s="175"/>
+      <c r="AD27" s="175"/>
+      <c r="AE27" s="175"/>
+      <c r="AF27" s="175"/>
+      <c r="AG27" s="175"/>
+      <c r="AH27" s="175"/>
+      <c r="AI27" s="175"/>
+      <c r="AJ27" s="175"/>
+      <c r="AK27" s="175"/>
+      <c r="AL27" s="175"/>
+      <c r="AM27" s="175"/>
+      <c r="AN27" s="175"/>
+      <c r="AO27" s="175"/>
+      <c r="AP27" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ27" s="174"/>
+      <c r="AR27" s="174"/>
+      <c r="AS27" s="174"/>
+      <c r="AT27" s="174"/>
+      <c r="AU27" s="174"/>
+      <c r="AV27" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW27" s="140"/>
+      <c r="AX27" s="140"/>
+      <c r="AY27" s="140"/>
+      <c r="AZ27" s="140"/>
+      <c r="BA27" s="141"/>
+      <c r="BB27" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC27" s="145"/>
+      <c r="BD27" s="145"/>
+      <c r="BE27" s="145"/>
+      <c r="BF27" s="146"/>
+      <c r="BG27" s="68"/>
+      <c r="BH27" s="69"/>
+      <c r="BI27" s="69"/>
+      <c r="BJ27" s="69"/>
+      <c r="BK27" s="69"/>
+      <c r="BL27" s="69"/>
+      <c r="BM27" s="69"/>
+      <c r="BN27" s="69"/>
+      <c r="BO27" s="69"/>
+      <c r="BP27" s="69"/>
+      <c r="BQ27" s="69"/>
+      <c r="BR27" s="69"/>
+      <c r="BS27" s="69"/>
+      <c r="BT27" s="147"/>
+    </row>
+    <row r="28" spans="2:72" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="174">
+        <v>13</v>
+      </c>
+      <c r="C28" s="174"/>
+      <c r="D28" s="175" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="175"/>
+      <c r="Y28" s="175"/>
+      <c r="Z28" s="175"/>
+      <c r="AA28" s="175"/>
+      <c r="AB28" s="175"/>
+      <c r="AC28" s="175"/>
+      <c r="AD28" s="175"/>
+      <c r="AE28" s="175"/>
+      <c r="AF28" s="175"/>
+      <c r="AG28" s="175"/>
+      <c r="AH28" s="175"/>
+      <c r="AI28" s="175"/>
+      <c r="AJ28" s="175"/>
+      <c r="AK28" s="175"/>
+      <c r="AL28" s="175"/>
+      <c r="AM28" s="175"/>
+      <c r="AN28" s="175"/>
+      <c r="AO28" s="175"/>
+      <c r="AP28" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ28" s="174"/>
+      <c r="AR28" s="174"/>
+      <c r="AS28" s="174"/>
+      <c r="AT28" s="174"/>
+      <c r="AU28" s="174"/>
+      <c r="AV28" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW28" s="140"/>
+      <c r="AX28" s="140"/>
+      <c r="AY28" s="140"/>
+      <c r="AZ28" s="140"/>
+      <c r="BA28" s="141"/>
+      <c r="BB28" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC28" s="145"/>
+      <c r="BD28" s="145"/>
+      <c r="BE28" s="145"/>
+      <c r="BF28" s="146"/>
+      <c r="BG28" s="68"/>
+      <c r="BH28" s="69"/>
+      <c r="BI28" s="69"/>
+      <c r="BJ28" s="69"/>
+      <c r="BK28" s="69"/>
+      <c r="BL28" s="69"/>
+      <c r="BM28" s="69"/>
+      <c r="BN28" s="69"/>
+      <c r="BO28" s="69"/>
+      <c r="BP28" s="69"/>
+      <c r="BQ28" s="69"/>
+      <c r="BR28" s="69"/>
+      <c r="BS28" s="69"/>
+      <c r="BT28" s="147"/>
+    </row>
+    <row r="29" spans="2:72" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="174">
+        <v>14</v>
+      </c>
+      <c r="C29" s="174"/>
+      <c r="D29" s="175" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="175"/>
+      <c r="W29" s="175"/>
+      <c r="X29" s="175"/>
+      <c r="Y29" s="175"/>
+      <c r="Z29" s="175"/>
+      <c r="AA29" s="175"/>
+      <c r="AB29" s="175"/>
+      <c r="AC29" s="175"/>
+      <c r="AD29" s="175"/>
+      <c r="AE29" s="175"/>
+      <c r="AF29" s="175"/>
+      <c r="AG29" s="175"/>
+      <c r="AH29" s="175"/>
+      <c r="AI29" s="175"/>
+      <c r="AJ29" s="175"/>
+      <c r="AK29" s="175"/>
+      <c r="AL29" s="175"/>
+      <c r="AM29" s="175"/>
+      <c r="AN29" s="175"/>
+      <c r="AO29" s="175"/>
+      <c r="AP29" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ29" s="174"/>
+      <c r="AR29" s="174"/>
+      <c r="AS29" s="174"/>
+      <c r="AT29" s="174"/>
+      <c r="AU29" s="174"/>
+      <c r="AV29" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW29" s="140"/>
+      <c r="AX29" s="140"/>
+      <c r="AY29" s="140"/>
+      <c r="AZ29" s="140"/>
+      <c r="BA29" s="141"/>
+      <c r="BB29" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC29" s="145"/>
+      <c r="BD29" s="145"/>
+      <c r="BE29" s="145"/>
+      <c r="BF29" s="146"/>
+      <c r="BG29" s="68"/>
+      <c r="BH29" s="69"/>
+      <c r="BI29" s="69"/>
+      <c r="BJ29" s="69"/>
+      <c r="BK29" s="69"/>
+      <c r="BL29" s="69"/>
+      <c r="BM29" s="69"/>
+      <c r="BN29" s="69"/>
+      <c r="BO29" s="69"/>
+      <c r="BP29" s="69"/>
+      <c r="BQ29" s="69"/>
+      <c r="BR29" s="69"/>
+      <c r="BS29" s="69"/>
+      <c r="BT29" s="147"/>
+    </row>
+    <row r="30" spans="2:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="174">
+        <v>15</v>
+      </c>
+      <c r="C30" s="174"/>
+      <c r="D30" s="175" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="175"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="175" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="175"/>
+      <c r="V30" s="175"/>
+      <c r="W30" s="175"/>
+      <c r="X30" s="175"/>
+      <c r="Y30" s="175"/>
+      <c r="Z30" s="175"/>
+      <c r="AA30" s="175"/>
+      <c r="AB30" s="175"/>
+      <c r="AC30" s="175"/>
+      <c r="AD30" s="175"/>
+      <c r="AE30" s="175"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="175"/>
+      <c r="AH30" s="175"/>
+      <c r="AI30" s="175"/>
+      <c r="AJ30" s="175"/>
+      <c r="AK30" s="175"/>
+      <c r="AL30" s="175"/>
+      <c r="AM30" s="175"/>
+      <c r="AN30" s="175"/>
+      <c r="AO30" s="175"/>
+      <c r="AP30" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ30" s="174"/>
+      <c r="AR30" s="174"/>
+      <c r="AS30" s="174"/>
+      <c r="AT30" s="174"/>
+      <c r="AU30" s="174"/>
+      <c r="AV30" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW30" s="140"/>
+      <c r="AX30" s="140"/>
+      <c r="AY30" s="140"/>
+      <c r="AZ30" s="140"/>
+      <c r="BA30" s="141"/>
+      <c r="BB30" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC30" s="145"/>
+      <c r="BD30" s="145"/>
+      <c r="BE30" s="145"/>
+      <c r="BF30" s="146"/>
+      <c r="BG30" s="68"/>
+      <c r="BH30" s="69"/>
+      <c r="BI30" s="69"/>
+      <c r="BJ30" s="69"/>
+      <c r="BK30" s="69"/>
+      <c r="BL30" s="69"/>
+      <c r="BM30" s="69"/>
+      <c r="BN30" s="69"/>
+      <c r="BO30" s="69"/>
+      <c r="BP30" s="69"/>
+      <c r="BQ30" s="69"/>
+      <c r="BR30" s="69"/>
+      <c r="BS30" s="69"/>
+      <c r="BT30" s="147"/>
+    </row>
+    <row r="31" spans="2:72" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="174">
+        <v>16</v>
+      </c>
+      <c r="C31" s="174"/>
+      <c r="D31" s="175" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="176" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31" s="176"/>
+      <c r="R31" s="176"/>
+      <c r="S31" s="176"/>
+      <c r="T31" s="176"/>
+      <c r="U31" s="176"/>
+      <c r="V31" s="176"/>
+      <c r="W31" s="176"/>
+      <c r="X31" s="176"/>
+      <c r="Y31" s="176"/>
+      <c r="Z31" s="176"/>
+      <c r="AA31" s="176"/>
+      <c r="AB31" s="176"/>
+      <c r="AC31" s="176"/>
+      <c r="AD31" s="176"/>
+      <c r="AE31" s="176"/>
+      <c r="AF31" s="176"/>
+      <c r="AG31" s="176"/>
+      <c r="AH31" s="176"/>
+      <c r="AI31" s="176"/>
+      <c r="AJ31" s="176"/>
+      <c r="AK31" s="176"/>
+      <c r="AL31" s="176"/>
+      <c r="AM31" s="176"/>
+      <c r="AN31" s="176"/>
+      <c r="AO31" s="176"/>
+      <c r="AP31" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ31" s="174"/>
+      <c r="AR31" s="174"/>
+      <c r="AS31" s="174"/>
+      <c r="AT31" s="174"/>
+      <c r="AU31" s="174"/>
+      <c r="AV31" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW31" s="140"/>
+      <c r="AX31" s="140"/>
+      <c r="AY31" s="140"/>
+      <c r="AZ31" s="140"/>
+      <c r="BA31" s="141"/>
+      <c r="BB31" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC31" s="145"/>
+      <c r="BD31" s="145"/>
+      <c r="BE31" s="145"/>
+      <c r="BF31" s="146"/>
+      <c r="BG31" s="68"/>
+      <c r="BH31" s="69"/>
+      <c r="BI31" s="69"/>
+      <c r="BJ31" s="69"/>
+      <c r="BK31" s="69"/>
+      <c r="BL31" s="69"/>
+      <c r="BM31" s="69"/>
+      <c r="BN31" s="69"/>
+      <c r="BO31" s="69"/>
+      <c r="BP31" s="69"/>
+      <c r="BQ31" s="69"/>
+      <c r="BR31" s="69"/>
+      <c r="BS31" s="69"/>
+      <c r="BT31" s="147"/>
+    </row>
+    <row r="32" spans="2:72" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="174">
+        <v>17</v>
+      </c>
+      <c r="C32" s="174"/>
+      <c r="D32" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="176" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q32" s="176"/>
+      <c r="R32" s="176"/>
+      <c r="S32" s="176"/>
+      <c r="T32" s="176"/>
+      <c r="U32" s="176"/>
+      <c r="V32" s="176"/>
+      <c r="W32" s="176"/>
+      <c r="X32" s="176"/>
+      <c r="Y32" s="176"/>
+      <c r="Z32" s="176"/>
+      <c r="AA32" s="176"/>
+      <c r="AB32" s="176"/>
+      <c r="AC32" s="176"/>
+      <c r="AD32" s="176"/>
+      <c r="AE32" s="176"/>
+      <c r="AF32" s="176"/>
+      <c r="AG32" s="176"/>
+      <c r="AH32" s="176"/>
+      <c r="AI32" s="176"/>
+      <c r="AJ32" s="176"/>
+      <c r="AK32" s="176"/>
+      <c r="AL32" s="176"/>
+      <c r="AM32" s="176"/>
+      <c r="AN32" s="176"/>
+      <c r="AO32" s="176"/>
+      <c r="AP32" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ32" s="174"/>
+      <c r="AR32" s="174"/>
+      <c r="AS32" s="174"/>
+      <c r="AT32" s="174"/>
+      <c r="AU32" s="174"/>
+      <c r="AV32" s="140" t="str">
+        <f t="shared" si="0"/>
+        <v>19/02/2025</v>
+      </c>
+      <c r="AW32" s="140"/>
+      <c r="AX32" s="140"/>
+      <c r="AY32" s="140"/>
+      <c r="AZ32" s="140"/>
+      <c r="BA32" s="141"/>
+      <c r="BB32" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC32" s="145"/>
+      <c r="BD32" s="145"/>
+      <c r="BE32" s="145"/>
+      <c r="BF32" s="146"/>
+      <c r="BG32" s="68"/>
+      <c r="BH32" s="69"/>
+      <c r="BI32" s="69"/>
+      <c r="BJ32" s="69"/>
+      <c r="BK32" s="69"/>
+      <c r="BL32" s="69"/>
+      <c r="BM32" s="69"/>
+      <c r="BN32" s="69"/>
+      <c r="BO32" s="69"/>
+      <c r="BP32" s="69"/>
+      <c r="BQ32" s="69"/>
+      <c r="BR32" s="69"/>
+      <c r="BS32" s="69"/>
+      <c r="BT32" s="147"/>
+    </row>
+    <row r="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="149">
+    <mergeCell ref="BG31:BT31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="P32:AO32"/>
+    <mergeCell ref="AP32:AU32"/>
+    <mergeCell ref="AV32:BA32"/>
+    <mergeCell ref="BB32:BF32"/>
+    <mergeCell ref="BG32:BT32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="P31:AO31"/>
+    <mergeCell ref="AP31:AU31"/>
+    <mergeCell ref="AV31:BA31"/>
+    <mergeCell ref="BB31:BF31"/>
+    <mergeCell ref="BG29:BT29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="P30:AO30"/>
+    <mergeCell ref="AP30:AU30"/>
+    <mergeCell ref="AV30:BA30"/>
+    <mergeCell ref="BB30:BF30"/>
+    <mergeCell ref="BG30:BT30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="P29:AO29"/>
+    <mergeCell ref="AP29:AU29"/>
+    <mergeCell ref="AV29:BA29"/>
+    <mergeCell ref="BB29:BF29"/>
+    <mergeCell ref="BG27:BT27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:O28"/>
+    <mergeCell ref="P28:AO28"/>
+    <mergeCell ref="AP28:AU28"/>
+    <mergeCell ref="AV28:BA28"/>
+    <mergeCell ref="BB28:BF28"/>
+    <mergeCell ref="BG28:BT28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:O27"/>
+    <mergeCell ref="P27:AO27"/>
+    <mergeCell ref="AP27:AU27"/>
+    <mergeCell ref="AV27:BA27"/>
+    <mergeCell ref="BB27:BF27"/>
+    <mergeCell ref="BG25:BT25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="P26:AO26"/>
+    <mergeCell ref="AP26:AU26"/>
+    <mergeCell ref="AV26:BA26"/>
+    <mergeCell ref="BB26:BF26"/>
+    <mergeCell ref="BG26:BT26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="P25:AO25"/>
+    <mergeCell ref="AP25:AU25"/>
+    <mergeCell ref="AV25:BA25"/>
+    <mergeCell ref="BB25:BF25"/>
+    <mergeCell ref="BG23:BT23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:O24"/>
+    <mergeCell ref="P24:AO24"/>
+    <mergeCell ref="AP24:AU24"/>
+    <mergeCell ref="AV24:BA24"/>
+    <mergeCell ref="BB24:BF24"/>
+    <mergeCell ref="BG24:BT24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="P23:AO23"/>
+    <mergeCell ref="AP23:AU23"/>
+    <mergeCell ref="AV23:BA23"/>
+    <mergeCell ref="BB23:BF23"/>
+    <mergeCell ref="BG21:BT21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="P22:AO22"/>
+    <mergeCell ref="AP22:AU22"/>
+    <mergeCell ref="AV22:BA22"/>
+    <mergeCell ref="BB22:BF22"/>
+    <mergeCell ref="BG22:BT22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:O21"/>
+    <mergeCell ref="P21:AO21"/>
+    <mergeCell ref="AP21:AU21"/>
+    <mergeCell ref="AV21:BA21"/>
+    <mergeCell ref="BB21:BF21"/>
+    <mergeCell ref="BG19:BT19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="P20:AO20"/>
+    <mergeCell ref="AP20:AU20"/>
+    <mergeCell ref="AV20:BA20"/>
+    <mergeCell ref="BB20:BF20"/>
+    <mergeCell ref="BG20:BT20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="P19:AO19"/>
+    <mergeCell ref="AP19:AU19"/>
+    <mergeCell ref="AV19:BA19"/>
+    <mergeCell ref="BB19:BF19"/>
+    <mergeCell ref="BG17:BT17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="P18:AO18"/>
+    <mergeCell ref="AP18:AU18"/>
+    <mergeCell ref="AV18:BA18"/>
+    <mergeCell ref="BB18:BF18"/>
+    <mergeCell ref="BG18:BT18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="P17:AO17"/>
+    <mergeCell ref="AP17:AU17"/>
+    <mergeCell ref="AV17:BA17"/>
+    <mergeCell ref="BB17:BF17"/>
+    <mergeCell ref="BG15:BT15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="P16:AO16"/>
+    <mergeCell ref="AP16:AU16"/>
+    <mergeCell ref="AV16:BA16"/>
+    <mergeCell ref="BB16:BF16"/>
+    <mergeCell ref="BG16:BT16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="P15:AO15"/>
+    <mergeCell ref="AP15:AU15"/>
+    <mergeCell ref="AV15:BA15"/>
+    <mergeCell ref="BB15:BF15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="BA13:BF13"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BA10:BF10"/>
+    <mergeCell ref="BA11:BF11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="BA12:BF12"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="AI4:BI4"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="N6:BI7"/>
+    <mergeCell ref="F7:M7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BB16:BB32" xr:uid="{F5EA4C94-7613-4DA5-BA10-8F40018F1E11}">
+      <formula1>$BA$10:$BF$14</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{693BF4CC-1C8B-416C-AC5A-5B6637078D3A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:BT32"/>
   <sheetViews>
@@ -8255,7 +12242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -8367,7 +12354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
